--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2120.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2120.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.861630502155028</v>
+        <v>0.8502261638641357</v>
       </c>
       <c r="B1">
-        <v>2.029059836679612</v>
+        <v>2.663928031921387</v>
       </c>
       <c r="C1">
-        <v>1.457082588265268</v>
+        <v>3.230233669281006</v>
       </c>
       <c r="D1">
-        <v>1.319904543007274</v>
+        <v>1.817433834075928</v>
       </c>
       <c r="E1">
-        <v>1.350433318877196</v>
+        <v>1.391499042510986</v>
       </c>
     </row>
   </sheetData>
